--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,28 +825,29 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>200</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,19 +1052,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,15 +1086,15 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-22500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,37 +1136,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,19 +1436,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1386,37 +1456,43 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E41" s="3">
         <v>39500</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E46" s="3">
         <v>40400</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245600</v>
+      </c>
+      <c r="E54" s="3">
         <v>43600</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54400</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E76" s="3">
         <v>40400</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,62 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,8 +751,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +786,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,31 +838,32 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +990,44 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1035,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,22 +1085,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1075,8 +1108,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,15 +1125,15 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-22500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1178,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,22 +1505,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1459,40 +1528,46 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,20 +1705,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E41" s="3">
         <v>240000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1773,11 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1808,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,20 +1843,23 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,20 +1878,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>219800</v>
+      </c>
+      <c r="E46" s="3">
         <v>241800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1913,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,20 +1948,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1876,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,20 +2088,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,20 +2158,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E54" s="3">
         <v>245600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,20 +2225,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,20 +2293,23 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,20 +2328,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,20 +2398,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2433,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,20 +2538,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,20 +2728,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-65400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,20 +2868,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>230700</v>
+      </c>
+      <c r="E76" s="3">
         <v>239100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2859,14 +3057,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3238,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3051,14 +3267,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3097,14 +3317,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3393,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3193,14 +3422,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3583,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3367,14 +3612,17 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3653,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3431,10 +3682,13 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,66 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,34 +852,35 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>200</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,43 +1017,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>19100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1035,34 +1065,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,25 +1119,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1111,8 +1145,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1128,15 +1165,15 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-22500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,25 +1575,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1531,43 +1601,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,23 +1792,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>219300</v>
+      </c>
+      <c r="E41" s="3">
         <v>213500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,23 +1942,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,23 +1980,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E46" s="3">
         <v>219800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,23 +2056,26 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E48" s="3">
         <v>15400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,23 +2208,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,23 +2284,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E54" s="3">
         <v>236100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>245600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2356,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,23 +2430,26 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,23 +2468,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,23 +2544,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,23 +2696,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,23 +2902,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,23 +3054,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E76" s="3">
         <v>230700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>239100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3060,14 +3259,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3270,14 +3487,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3320,14 +3541,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3425,14 +3655,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3615,14 +3861,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3685,10 +3937,13 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,37 +866,38 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>200</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,46 +1044,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,37 +1095,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-19100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,28 +1153,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1165,18 +1202,18 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-22500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-19000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-19000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,28 +1645,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,46 +1674,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>116900</v>
+      </c>
+      <c r="E41" s="3">
         <v>219300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>213500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>39500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,26 +2041,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154900</v>
+      </c>
+      <c r="E46" s="3">
         <v>222200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>219800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>241800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,26 +2164,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E48" s="3">
         <v>21100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E54" s="3">
         <v>244600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>236100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>245600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,17 +2497,17 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,26 +2567,29 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>18300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>19300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>225300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>239100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3262,14 +3461,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,14 +3707,17 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3544,14 +3765,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3658,14 +3888,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3864,14 +4110,17 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3940,10 +4192,13 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,40 +880,41 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>200</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -963,17 +983,17 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1071,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,40 +1081,43 @@
         <v>13500</v>
       </c>
       <c r="E17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1125,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,28 +1190,28 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1199,24 +1236,24 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-22500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1307,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-13500</v>
       </c>
       <c r="E23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-12700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-19000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-13500</v>
       </c>
       <c r="E26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-12700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-19000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-13500</v>
       </c>
       <c r="E27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-19000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,28 +1718,28 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,49 +1747,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-13500</v>
       </c>
       <c r="E33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-13500</v>
       </c>
       <c r="E35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E41" s="3">
         <v>116900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>219300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>213500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>39500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,31 +2008,34 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>36200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E46" s="3">
         <v>154900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>222200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>219800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>241800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,31 +2228,34 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>69800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>40400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E48" s="3">
         <v>27500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>218100</v>
+      </c>
+      <c r="E54" s="3">
         <v>223400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>244600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>236100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>245600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2579,20 +2716,20 @@
         <v>4900</v>
       </c>
       <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,13 +2792,16 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-65400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>208200</v>
       </c>
       <c r="E76" s="3">
+        <v>217200</v>
+      </c>
+      <c r="F76" s="3">
         <v>225300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>230700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>239100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-13500</v>
       </c>
       <c r="E81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,31 +3627,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,31 +3889,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-21500</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3710,14 +3927,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +3953,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-13900</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,31 +4083,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-13900</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3891,14 +4121,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,31 +4321,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>241000</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4113,14 +4359,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,31 +4409,34 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>205600</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4195,10 +4447,13 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -775,13 +778,16 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -819,13 +825,16 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-1500</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,43 +893,44 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,22 +985,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13500</v>
+        <v>23200</v>
       </c>
       <c r="E17" s="3">
         <v>13500</v>
       </c>
       <c r="F17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="D18" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,43 +1210,44 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1236,27 +1272,27 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-18800</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-6300</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-22500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,75 +1349,81 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-19000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-19000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-19000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,43 +1772,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E41" s="3">
         <v>77600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>116900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>219300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>213500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>240000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,20 +2097,23 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E42" s="3">
         <v>33000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>36200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2037,8 +2126,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2055,31 +2144,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E46" s="3">
         <v>111700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>222200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>219800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>241800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,20 +2332,23 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E47" s="3">
         <v>69800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>40400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E48" s="3">
         <v>31900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>27500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,31 +2426,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>160100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>363200</v>
+      </c>
+      <c r="E54" s="3">
         <v>218100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>223400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>244600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>236100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>245600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,31 +2793,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2707,32 +2840,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4900</v>
+        <v>49500</v>
       </c>
       <c r="E59" s="3">
         <v>4900</v>
       </c>
       <c r="F59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,17 +2934,20 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-146200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-97100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-65400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E76" s="3">
         <v>208200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>217200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>230700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>239100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,34 +3825,35 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3666,14 +3864,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,34 +4105,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-21500</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3930,14 +4146,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,34 +4173,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3992,14 +4212,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4312,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4124,14 +4353,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,34 +4566,37 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>241000</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4362,14 +4607,17 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,34 +4660,37 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>205600</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4450,10 +4701,13 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,11 +768,11 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -781,20 +789,26 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,20 +842,26 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1500</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F12" s="3">
         <v>6400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1022,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>3800</v>
       </c>
       <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1017,11 +1057,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1035,31 +1075,37 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,67 +1150,75 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F17" s="3">
         <v>23200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>19100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>22600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21900</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1171,29 +1231,35 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-22600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,20 +1277,22 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,37 +1305,43 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-19000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1287,26 +1361,32 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-22500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,66 +1432,78 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-22100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-12700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-19000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-22600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>-2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1425,11 +1517,11 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-13600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-12700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-19000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-22600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-19000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-22600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,20 +1909,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,76 +1941,88 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-22000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-19000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-22000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-19000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2225,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>54900</v>
+      </c>
+      <c r="F41" s="3">
         <v>66600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>77600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>116900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>219300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>213500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>240000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>39500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,26 +2274,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F42" s="3">
         <v>22100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>36200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,11 +2309,11 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2147,19 +2327,25 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>1100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -2173,11 +2359,11 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2433,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2486,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>78100</v>
+      </c>
+      <c r="F46" s="3">
         <v>94900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>111700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>154900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>222200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>219800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>241800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>40400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,26 +2539,32 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>65700</v>
+      </c>
+      <c r="F47" s="3">
         <v>67800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>69800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>40400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,11 +2574,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2382,38 +2592,44 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>43000</v>
+      </c>
+      <c r="F48" s="3">
         <v>39200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>31900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>27500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>15400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,20 +2645,26 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>157500</v>
+      </c>
+      <c r="F49" s="3">
         <v>160100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,11 +2677,11 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2804,44 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2910,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>317700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>347200</v>
+      </c>
+      <c r="F54" s="3">
         <v>363200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>218100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>223400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>244600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>236100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>245600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>43600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,37 +3009,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3000</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>400</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2796,19 +3058,25 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2822,11 +3090,11 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2843,38 +3111,44 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F59" s="3">
         <v>49500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3164,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F60" s="3">
         <v>52800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,23 +3217,29 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F61" s="3">
         <v>3800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3270,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F62" s="3">
         <v>14500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3482,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>70200</v>
+      </c>
+      <c r="F66" s="3">
         <v>71000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3768,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-187500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-167900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-146200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-124200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-110700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-97100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-84400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-65400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3821,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3980,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>277000</v>
+      </c>
+      <c r="F76" s="3">
         <v>292100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>208200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>217200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>225300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>230700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>239100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>40400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4033,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-22000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-19000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,40 +4222,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3867,14 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,40 +4536,46 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-10800</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
+        <v>-11500</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+        <v>-21500</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4149,14 +4583,20 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,40 +4614,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-3800</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+        <v>-13900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4215,14 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,40 +4769,46 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-4800</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+        <v>-13900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4356,14 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,40 +5055,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+        <v>4600</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+        <v>241000</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4610,14 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,40 +5161,46 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
+        <v>-11700</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+        <v>205600</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4704,10 +5208,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,8 +778,8 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -795,23 +799,26 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,23 +855,26 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1500</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,52 +935,53 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+      <c r="Q12" s="3">
+        <v>200</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1081,19 +1101,22 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1107,8 +1130,8 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,76 +1178,80 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E17" s="3">
         <v>24400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13500</v>
       </c>
       <c r="H17" s="3">
         <v>13500</v>
       </c>
       <c r="I17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J17" s="3">
         <v>12700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-22200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,29 +1267,32 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,23 +1312,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1311,20 +1345,20 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1332,20 +1366,23 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1367,15 +1404,15 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-22500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,75 +1478,81 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-22600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1523,8 +1569,8 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-19600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-19600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,23 +1982,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1947,20 +2017,20 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E41" s="3">
         <v>51700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>77600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>219300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>213500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>240000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>39500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,29 +2367,32 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E42" s="3">
         <v>35000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>18800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>22100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>36200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2315,8 +2405,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2333,22 +2423,25 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>1100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -2365,8 +2458,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E46" s="3">
         <v>89800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>78100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>111700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>222200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>219800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>241800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,29 +2647,32 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E47" s="3">
         <v>40100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>65700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>67800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>69800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>40400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E48" s="3">
         <v>44500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>27500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>15400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,23 +2759,26 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E49" s="3">
         <v>140500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>157500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>160100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2683,8 +2794,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
         <v>3000</v>
       </c>
       <c r="F52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E54" s="3">
         <v>317700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>347200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>363200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>218100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>223400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>244600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>236100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>245600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,8 +3212,8 @@
       <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E59" s="3">
         <v>38600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4900</v>
       </c>
       <c r="H59" s="3">
         <v>4900</v>
       </c>
       <c r="I59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E60" s="3">
         <v>40600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>51000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>52800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,17 +3375,17 @@
         <v>3500</v>
       </c>
       <c r="E61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F61" s="3">
         <v>3700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E66" s="3">
         <v>55400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>71000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-187500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-167900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-146200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-124200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-110700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-97100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-84400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>262300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>277000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>292100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>217200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>230700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>239100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>2900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -4244,23 +4443,23 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,43 +4756,46 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11500</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>-4400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-21500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4589,14 +4806,17 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,43 +4836,44 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,43 +5304,46 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E100" s="3">
         <v>9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>15900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>241000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5108,14 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,43 +5416,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-11700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>205600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5214,10 +5466,13 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,110 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,8 +784,8 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -802,26 +805,29 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>3900</v>
       </c>
       <c r="E9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,26 +864,29 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-1800</v>
       </c>
       <c r="E10" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,55 +948,56 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E12" s="3">
         <v>6100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
+      <c r="R12" s="3">
+        <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,34 +1064,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>36500</v>
       </c>
       <c r="E14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,10 +1138,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1133,8 +1155,8 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,82 +1204,86 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>18400</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>13500</v>
       </c>
       <c r="I17" s="3">
         <v>13500</v>
       </c>
       <c r="J17" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K17" s="3">
         <v>12700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-16000</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1270,29 +1299,32 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,26 +1345,27 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-3600</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1348,20 +1381,20 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1369,25 +1402,28 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-16600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-18900</v>
-      </c>
       <c r="F21" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-16000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-20200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1407,15 +1443,15 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-22500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,81 +1520,87 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-19500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1572,8 +1617,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,55 +1709,58 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-19600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,55 +1768,58 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-19600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,26 +2051,29 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>3600</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,20 +2089,20 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,55 +2122,58 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-19600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,116 +2240,122 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-19600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E41" s="3">
         <v>40300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>219300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>213500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>240000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>39500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,32 +2456,35 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E42" s="3">
         <v>47700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>35000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>18800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>33000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>36200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2408,8 +2497,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2426,25 +2515,28 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>1100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -2461,8 +2553,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2633,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E46" s="3">
         <v>90600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>89800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>78100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>111700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>222200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>219800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>241800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,32 +2751,35 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E47" s="3">
         <v>29000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>40100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>65700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>67800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>69800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>40400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E48" s="3">
         <v>45400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>27500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2762,26 +2869,29 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E49" s="3">
         <v>137800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>140500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>157500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>160100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,8 +2907,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,35 +3058,35 @@
         <v>2900</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
         <v>3000</v>
       </c>
       <c r="G52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253900</v>
+      </c>
+      <c r="E54" s="3">
         <v>305700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>317700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>347200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>363200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>218100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>223400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>244600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>236100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>245600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,13 +3328,16 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3215,8 +3348,8 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -3233,8 +3366,8 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E59" s="3">
         <v>37900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>38600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>4900</v>
       </c>
       <c r="I59" s="3">
         <v>4900</v>
       </c>
       <c r="J59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E60" s="3">
         <v>43600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>51000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,17 +3520,17 @@
         <v>3500</v>
       </c>
       <c r="F61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G61" s="3">
         <v>3700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E66" s="3">
         <v>57900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>71000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-251500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-206600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-187500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-167900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-146200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-124200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-84400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-65400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,35 +4366,35 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
+        <v>247800</v>
+      </c>
+      <c r="F76" s="3">
         <v>262300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>277000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>292100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>217200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>239100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,55 +4548,58 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-19600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,46 +4620,47 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2900</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>2900</v>
       </c>
       <c r="F83" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4473,14 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,46 +4972,49 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-10800</v>
-      </c>
       <c r="F89" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-22300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>26600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-7000</v>
       </c>
       <c r="J89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4809,14 +5025,17 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,46 +5056,47 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-1900</v>
-      </c>
       <c r="F91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-5800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4800</v>
       </c>
       <c r="J91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4887,14 +5107,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,37 +5243,37 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1900</v>
+        <v>10300</v>
       </c>
       <c r="F94" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>111500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-34700</v>
       </c>
       <c r="J94" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5055,14 +5284,17 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,46 +5549,49 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13500</v>
       </c>
-      <c r="E100" s="3">
-        <v>9500</v>
-      </c>
       <c r="F100" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2400</v>
       </c>
       <c r="J100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K100" s="3">
         <v>15900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>241000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5357,14 +5602,17 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,46 +5667,49 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-3200</v>
-      </c>
       <c r="F102" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-15000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>135300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-39300</v>
       </c>
       <c r="J102" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>205600</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5469,10 +5720,13 @@
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -1073,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>36500</v>
+        <v>40100</v>
       </c>
       <c r="E14" s="3">
         <v>3600</v>
@@ -1210,8 +1210,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>55900</v>
       </c>
       <c r="E17" s="3">
         <v>22300</v>
@@ -1269,8 +1269,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-53800</v>
       </c>
       <c r="E18" s="3">
         <v>-19900</v>
@@ -1351,8 +1351,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1410,17 +1410,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-50900</v>
       </c>
       <c r="E21" s="3">
         <v>-16600</v>
       </c>
       <c r="F21" s="3">
-        <v>-16000</v>
+        <v>-18900</v>
       </c>
       <c r="G21" s="3">
-        <v>-21200</v>
+        <v>-19000</v>
       </c>
       <c r="H21" s="3">
         <v>-20200</v>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-45900</v>
+        <v>-53900</v>
       </c>
       <c r="E23" s="3">
         <v>-19500</v>
@@ -1705,8 +1705,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-52800</v>
       </c>
       <c r="E26" s="3">
         <v>-19100</v>
@@ -1764,8 +1764,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-52800</v>
       </c>
       <c r="E27" s="3">
         <v>-19100</v>
@@ -2059,8 +2059,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -2118,8 +2118,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-52800</v>
       </c>
       <c r="E33" s="3">
         <v>-19100</v>
@@ -2236,8 +2236,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-52800</v>
       </c>
       <c r="E35" s="3">
         <v>-19100</v>
@@ -2641,8 +2641,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>3900</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
@@ -2878,7 +2878,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>91200</v>
+        <v>98600</v>
       </c>
       <c r="E49" s="3">
         <v>137800</v>
@@ -3396,7 +3396,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5200</v>
+        <v>21500</v>
       </c>
       <c r="E59" s="3">
         <v>37900</v>
@@ -3455,7 +3455,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17100</v>
+        <v>25100</v>
       </c>
       <c r="E60" s="3">
         <v>43600</v>
@@ -3809,7 +3809,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29300</v>
+        <v>37300</v>
       </c>
       <c r="E66" s="3">
         <v>57900</v>
@@ -4127,7 +4127,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-251500</v>
+        <v>-259500</v>
       </c>
       <c r="E72" s="3">
         <v>-206600</v>
@@ -4362,8 +4362,8 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>216700</v>
       </c>
       <c r="E76" s="3">
         <v>247800</v>
@@ -4544,8 +4544,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-52800</v>
       </c>
       <c r="E81" s="3">
         <v>-19100</v>
@@ -4626,17 +4626,17 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>2900</v>
       </c>
       <c r="E83" s="3">
         <v>2900</v>
       </c>
       <c r="F83" s="3">
-        <v>5700</v>
+        <v>2900</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>2900</v>
       </c>
       <c r="H83" s="3">
         <v>1900</v>
@@ -4645,7 +4645,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4980,17 +4980,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-12900</v>
       </c>
       <c r="E89" s="3">
         <v>-8200</v>
       </c>
       <c r="F89" s="3">
-        <v>-22300</v>
+        <v>-10800</v>
       </c>
       <c r="G89" s="3">
-        <v>26600</v>
+        <v>-11500</v>
       </c>
       <c r="H89" s="3">
         <v>-19300</v>
@@ -4999,7 +4999,7 @@
         <v>-7000</v>
       </c>
       <c r="J89" s="3">
-        <v>-11700</v>
+        <v>-7400</v>
       </c>
       <c r="K89" s="3">
         <v>-4400</v>
@@ -5062,17 +5062,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-1600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5800</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
-        <v>19300</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
         <v>-5900</v>
@@ -5081,7 +5081,7 @@
         <v>-4800</v>
       </c>
       <c r="J91" s="3">
-        <v>-12400</v>
+        <v>-6700</v>
       </c>
       <c r="K91" s="3">
         <v>-5700</v>
@@ -5239,17 +5239,17 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>11100</v>
       </c>
       <c r="E94" s="3">
         <v>10300</v>
       </c>
       <c r="F94" s="3">
-        <v>-6800</v>
+        <v>-1900</v>
       </c>
       <c r="G94" s="3">
-        <v>111500</v>
+        <v>-4800</v>
       </c>
       <c r="H94" s="3">
         <v>7500</v>
@@ -5258,7 +5258,7 @@
         <v>-34700</v>
       </c>
       <c r="J94" s="3">
-        <v>-89100</v>
+        <v>-83400</v>
       </c>
       <c r="K94" s="3">
         <v>-5700</v>
@@ -5557,17 +5557,17 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>-13500</v>
       </c>
       <c r="F100" s="3">
-        <v>14100</v>
+        <v>9500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2800</v>
+        <v>4600</v>
       </c>
       <c r="H100" s="3">
         <v>1000</v>
@@ -5576,7 +5576,7 @@
         <v>2400</v>
       </c>
       <c r="J100" s="3">
-        <v>3900</v>
+        <v>-12000</v>
       </c>
       <c r="K100" s="3">
         <v>15900</v>
@@ -5675,17 +5675,17 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-1900</v>
       </c>
       <c r="E102" s="3">
         <v>-11400</v>
       </c>
       <c r="F102" s="3">
-        <v>-15000</v>
+        <v>-3200</v>
       </c>
       <c r="G102" s="3">
-        <v>135300</v>
+        <v>-11700</v>
       </c>
       <c r="H102" s="3">
         <v>-10800</v>
@@ -5694,7 +5694,7 @@
         <v>-39300</v>
       </c>
       <c r="J102" s="3">
-        <v>-96900</v>
+        <v>-102700</v>
       </c>
       <c r="K102" s="3">
         <v>5800</v>

--- a/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NNOX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
   <si>
     <t>NNOX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,124 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2400</v>
       </c>
       <c r="F8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,11 +795,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -808,32 +816,38 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,32 +881,38 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="E10" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="F10" s="3">
         <v>-1800</v>
       </c>
       <c r="G10" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I10" s="3">
         <v>-1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-1500</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F12" s="3">
         <v>7100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>6800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>6400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>2700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,40 +1101,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3">
         <v>40100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3600</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="3">
-        <v>500</v>
       </c>
       <c r="H14" s="3">
         <v>3800</v>
       </c>
       <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1108,11 +1148,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1126,28 +1166,34 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1158,11 +1204,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,91 +1257,99 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F17" s="3">
         <v>55900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>22300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>23800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>13500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>19100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>22600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-53800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-22200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-22000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1302,29 +1362,35 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,32 +1412,34 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,53 +1452,59 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-50900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-18900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-19000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-20200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,26 +1520,32 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,90 +1603,102 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-53900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-19500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-22100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-2100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1620,11 +1712,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-52800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-19100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-19600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-22000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-52800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-19100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-19600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-11100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,32 +2188,38 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,88 +2232,100 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-52800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-19100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-19600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-22000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-11100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-52800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-19100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-19600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-22000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-11100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2572,52 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>37600</v>
+      </c>
+      <c r="F41" s="3">
         <v>38500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>40300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>51700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>54900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>66600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>77600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>116900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>219300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>213500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>240000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>39500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,38 +2633,44 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>40500</v>
+      </c>
+      <c r="F42" s="3">
         <v>39200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>47700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>35000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>18800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>22100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>33000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>36200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2500,11 +2680,11 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2518,31 +2698,37 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1200</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
       <c r="H43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>1100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2556,11 +2742,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2828,56 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2893,56 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>81900</v>
+      </c>
+      <c r="F46" s="3">
         <v>82500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>90600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>89800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>78100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>94900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>111700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>154900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>222200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>219800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>241800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>40400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,38 +2958,44 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F47" s="3">
         <v>25200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>29000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>40100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>65700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>67800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>69800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>40400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,11 +3005,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2813,50 +3023,56 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F48" s="3">
         <v>44700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>45400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>44500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>39200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>31900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>21100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>15400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,32 +3088,38 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F49" s="3">
         <v>98600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>137800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>140500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>157500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>160100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2910,11 +3132,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3283,56 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3413,56 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F54" s="3">
         <v>253900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>305700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>317700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>347200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>363200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>218100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>223400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>244600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>236100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>245600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>43600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3478,14 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,49 +3532,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="O57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3331,19 +3593,25 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3351,11 +3619,11 @@
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -3369,11 +3637,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,50 +3658,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F59" s="3">
         <v>21500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>37900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>38600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>47200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>49500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3723,56 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F60" s="3">
         <v>25100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>43600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>40600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>51000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>52800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,13 +3788,19 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E61" s="3">
         <v>3500</v>
@@ -3523,20 +3809,20 @@
         <v>3500</v>
       </c>
       <c r="G61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I61" s="3">
         <v>3700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3853,56 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>11400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1000</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>900</v>
+      </c>
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +4113,56 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32200</v>
+      </c>
+      <c r="F66" s="3">
         <v>37300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>57900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>55400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>70200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>71000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4178,14 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4463,56 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-288600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-271200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-259500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-206600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-187500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-167900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-146200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-124200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-110700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-97100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-84400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-65400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4528,14 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4723,56 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>206700</v>
+      </c>
+      <c r="F76" s="3">
         <v>216700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>247800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>262300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>277000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>292100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>208200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>217200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>225300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>230700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>239100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>40400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4788,14 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-52800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-19100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-19600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-22000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-11100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-22600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4639,34 +5037,34 @@
         <v>2900</v>
       </c>
       <c r="H83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J83" s="3">
         <v>1900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4674,14 +5072,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,52 +5403,58 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-10800</v>
-      </c>
       <c r="G89" s="3">
-        <v>-11500</v>
+        <v>-9400</v>
       </c>
       <c r="H89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-19300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-21500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5028,14 +5462,20 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,52 +5497,54 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-13900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5110,14 +5552,20 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,52 +5688,58 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F94" s="3">
         <v>11100</v>
       </c>
-      <c r="E94" s="3">
-        <v>10300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G94" s="3">
-        <v>-4800</v>
+        <v>-2200</v>
       </c>
       <c r="H94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J94" s="3">
         <v>7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-34700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-83400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5287,14 +5747,20 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,52 +6038,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>-13500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>241000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5605,14 +6097,20 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5622,20 +6120,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5670,52 +6168,58 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-11700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-10800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-39300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-102700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>205600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5723,10 +6227,16 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
